--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L427"/>
+  <dimension ref="A1:L428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16689,6 +16689,44 @@
         <v>2.9</v>
       </c>
     </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E428" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F428" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G428" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H428" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I428" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J428" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K428" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L428" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -16656,10 +16656,10 @@
         <v>44602</v>
       </c>
       <c r="B427" t="n">
-        <v>0.48</v>
+        <v>0.435</v>
       </c>
       <c r="C427" t="n">
-        <v>0.66</v>
+        <v>0.615</v>
       </c>
       <c r="D427" t="n">
         <v>0.76</v>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -16244,7 +16244,7 @@
         <v>0.67</v>
       </c>
       <c r="D416" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E416" t="n">
         <v>1.37</v>
@@ -16265,10 +16265,10 @@
         <v>2.42</v>
       </c>
       <c r="K416" t="n">
-        <v>2.7</v>
+        <v>2.647</v>
       </c>
       <c r="L416" t="n">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="417">
@@ -16282,7 +16282,7 @@
         <v>0.67</v>
       </c>
       <c r="D417" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E417" t="n">
         <v>1.37</v>
@@ -16303,10 +16303,10 @@
         <v>2.36</v>
       </c>
       <c r="K417" t="n">
-        <v>2.7</v>
+        <v>2.647</v>
       </c>
       <c r="L417" t="n">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="418">
@@ -16320,7 +16320,7 @@
         <v>0.68</v>
       </c>
       <c r="D418" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E418" t="n">
         <v>1.37</v>
@@ -16341,10 +16341,10 @@
         <v>2.36</v>
       </c>
       <c r="K418" t="n">
-        <v>2.7</v>
+        <v>2.647</v>
       </c>
       <c r="L418" t="n">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="419">
@@ -16358,7 +16358,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D419" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E419" t="n">
         <v>1.43</v>
@@ -16379,10 +16379,10 @@
         <v>2.39</v>
       </c>
       <c r="K419" t="n">
-        <v>2.7</v>
+        <v>2.647</v>
       </c>
       <c r="L419" t="n">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="420">
@@ -16396,7 +16396,7 @@
         <v>0.68</v>
       </c>
       <c r="D420" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E420" t="n">
         <v>1.48</v>
@@ -16417,10 +16417,10 @@
         <v>2.45</v>
       </c>
       <c r="K420" t="n">
-        <v>2.7</v>
+        <v>2.647</v>
       </c>
       <c r="L420" t="n">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="421">
@@ -16434,7 +16434,7 @@
         <v>0.68</v>
       </c>
       <c r="D421" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E421" t="n">
         <v>1.48</v>
@@ -16455,10 +16455,10 @@
         <v>2.5</v>
       </c>
       <c r="K421" t="n">
-        <v>2.7</v>
+        <v>2.647</v>
       </c>
       <c r="L421" t="n">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="422">
@@ -16472,7 +16472,7 @@
         <v>0.65</v>
       </c>
       <c r="D422" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E422" t="n">
         <v>1.475</v>
@@ -16493,10 +16493,10 @@
         <v>2.47</v>
       </c>
       <c r="K422" t="n">
-        <v>2.7</v>
+        <v>2.647</v>
       </c>
       <c r="L422" t="n">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="423">
@@ -16510,7 +16510,7 @@
         <v>0.65</v>
       </c>
       <c r="D423" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E423" t="n">
         <v>1.475</v>
@@ -16531,10 +16531,10 @@
         <v>2.5</v>
       </c>
       <c r="K423" t="n">
-        <v>2.7</v>
+        <v>2.647</v>
       </c>
       <c r="L423" t="n">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="424">
@@ -16548,7 +16548,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D424" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E424" t="n">
         <v>1.56</v>
@@ -16569,10 +16569,10 @@
         <v>2.6</v>
       </c>
       <c r="K424" t="n">
-        <v>2.7</v>
+        <v>2.647</v>
       </c>
       <c r="L424" t="n">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="425">
@@ -16586,7 +16586,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D425" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E425" t="n">
         <v>1.57</v>
@@ -16607,10 +16607,10 @@
         <v>2.58</v>
       </c>
       <c r="K425" t="n">
-        <v>2.7</v>
+        <v>2.647</v>
       </c>
       <c r="L425" t="n">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="426">
@@ -16624,7 +16624,7 @@
         <v>0.68</v>
       </c>
       <c r="D426" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E426" t="n">
         <v>1.53</v>
@@ -16645,10 +16645,10 @@
         <v>2.53</v>
       </c>
       <c r="K426" t="n">
-        <v>2.7</v>
+        <v>2.647</v>
       </c>
       <c r="L426" t="n">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="427">
@@ -16662,7 +16662,7 @@
         <v>0.615</v>
       </c>
       <c r="D427" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E427" t="n">
         <v>1.49</v>
@@ -16683,10 +16683,10 @@
         <v>2.56</v>
       </c>
       <c r="K427" t="n">
-        <v>2.7</v>
+        <v>2.647</v>
       </c>
       <c r="L427" t="n">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="428">
@@ -16700,7 +16700,7 @@
         <v>0.58</v>
       </c>
       <c r="D428" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E428" t="n">
         <v>1.39</v>
@@ -16721,10 +16721,10 @@
         <v>2.57</v>
       </c>
       <c r="K428" t="n">
-        <v>2.7</v>
+        <v>2.647</v>
       </c>
       <c r="L428" t="n">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -16244,7 +16244,7 @@
         <v>0.67</v>
       </c>
       <c r="D416" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E416" t="n">
         <v>1.37</v>
@@ -16265,10 +16265,10 @@
         <v>2.42</v>
       </c>
       <c r="K416" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L416" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="417">
@@ -16282,7 +16282,7 @@
         <v>0.67</v>
       </c>
       <c r="D417" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E417" t="n">
         <v>1.37</v>
@@ -16303,10 +16303,10 @@
         <v>2.36</v>
       </c>
       <c r="K417" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L417" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="418">
@@ -16320,7 +16320,7 @@
         <v>0.68</v>
       </c>
       <c r="D418" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E418" t="n">
         <v>1.37</v>
@@ -16341,10 +16341,10 @@
         <v>2.36</v>
       </c>
       <c r="K418" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L418" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="419">
@@ -16358,7 +16358,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D419" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E419" t="n">
         <v>1.43</v>
@@ -16379,10 +16379,10 @@
         <v>2.39</v>
       </c>
       <c r="K419" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L419" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="420">
@@ -16396,7 +16396,7 @@
         <v>0.68</v>
       </c>
       <c r="D420" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E420" t="n">
         <v>1.48</v>
@@ -16417,10 +16417,10 @@
         <v>2.45</v>
       </c>
       <c r="K420" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L420" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="421">
@@ -16434,7 +16434,7 @@
         <v>0.68</v>
       </c>
       <c r="D421" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E421" t="n">
         <v>1.48</v>
@@ -16455,10 +16455,10 @@
         <v>2.5</v>
       </c>
       <c r="K421" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L421" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="422">
@@ -16472,7 +16472,7 @@
         <v>0.65</v>
       </c>
       <c r="D422" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E422" t="n">
         <v>1.475</v>
@@ -16493,10 +16493,10 @@
         <v>2.47</v>
       </c>
       <c r="K422" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L422" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="423">
@@ -16510,7 +16510,7 @@
         <v>0.65</v>
       </c>
       <c r="D423" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E423" t="n">
         <v>1.475</v>
@@ -16531,10 +16531,10 @@
         <v>2.5</v>
       </c>
       <c r="K423" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L423" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="424">
@@ -16548,7 +16548,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D424" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E424" t="n">
         <v>1.56</v>
@@ -16569,10 +16569,10 @@
         <v>2.6</v>
       </c>
       <c r="K424" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L424" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="425">
@@ -16586,7 +16586,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D425" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E425" t="n">
         <v>1.57</v>
@@ -16607,10 +16607,10 @@
         <v>2.58</v>
       </c>
       <c r="K425" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L425" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="426">
@@ -16624,7 +16624,7 @@
         <v>0.68</v>
       </c>
       <c r="D426" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E426" t="n">
         <v>1.53</v>
@@ -16645,10 +16645,10 @@
         <v>2.53</v>
       </c>
       <c r="K426" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L426" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="427">
@@ -16662,7 +16662,7 @@
         <v>0.615</v>
       </c>
       <c r="D427" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E427" t="n">
         <v>1.49</v>
@@ -16683,10 +16683,10 @@
         <v>2.56</v>
       </c>
       <c r="K427" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L427" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="428">
@@ -16700,7 +16700,7 @@
         <v>0.58</v>
       </c>
       <c r="D428" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E428" t="n">
         <v>1.39</v>
@@ -16721,10 +16721,10 @@
         <v>2.57</v>
       </c>
       <c r="K428" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L428" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -16265,7 +16265,7 @@
         <v>2.42</v>
       </c>
       <c r="K416" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L416" t="n">
         <v>2.875</v>
@@ -16303,7 +16303,7 @@
         <v>2.36</v>
       </c>
       <c r="K417" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L417" t="n">
         <v>2.875</v>
@@ -16341,7 +16341,7 @@
         <v>2.36</v>
       </c>
       <c r="K418" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L418" t="n">
         <v>2.875</v>
@@ -16379,7 +16379,7 @@
         <v>2.39</v>
       </c>
       <c r="K419" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L419" t="n">
         <v>2.875</v>
@@ -16417,7 +16417,7 @@
         <v>2.45</v>
       </c>
       <c r="K420" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L420" t="n">
         <v>2.875</v>
@@ -16455,7 +16455,7 @@
         <v>2.5</v>
       </c>
       <c r="K421" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L421" t="n">
         <v>2.875</v>
@@ -16493,7 +16493,7 @@
         <v>2.47</v>
       </c>
       <c r="K422" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L422" t="n">
         <v>2.875</v>
@@ -16531,7 +16531,7 @@
         <v>2.5</v>
       </c>
       <c r="K423" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L423" t="n">
         <v>2.875</v>
@@ -16569,7 +16569,7 @@
         <v>2.6</v>
       </c>
       <c r="K424" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L424" t="n">
         <v>2.875</v>
@@ -16607,7 +16607,7 @@
         <v>2.58</v>
       </c>
       <c r="K425" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L425" t="n">
         <v>2.875</v>
@@ -16645,7 +16645,7 @@
         <v>2.53</v>
       </c>
       <c r="K426" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L426" t="n">
         <v>2.875</v>
@@ -16683,7 +16683,7 @@
         <v>2.56</v>
       </c>
       <c r="K427" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L427" t="n">
         <v>2.875</v>
@@ -16721,7 +16721,7 @@
         <v>2.57</v>
       </c>
       <c r="K428" t="n">
-        <v>2.647</v>
+        <v>2.7</v>
       </c>
       <c r="L428" t="n">
         <v>2.875</v>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -16244,7 +16244,7 @@
         <v>0.67</v>
       </c>
       <c r="D416" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E416" t="n">
         <v>1.37</v>
@@ -16268,7 +16268,7 @@
         <v>2.7</v>
       </c>
       <c r="L416" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="417">
@@ -16282,7 +16282,7 @@
         <v>0.67</v>
       </c>
       <c r="D417" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E417" t="n">
         <v>1.37</v>
@@ -16306,7 +16306,7 @@
         <v>2.7</v>
       </c>
       <c r="L417" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="418">
@@ -16320,7 +16320,7 @@
         <v>0.68</v>
       </c>
       <c r="D418" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E418" t="n">
         <v>1.37</v>
@@ -16344,7 +16344,7 @@
         <v>2.7</v>
       </c>
       <c r="L418" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="419">
@@ -16358,7 +16358,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D419" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E419" t="n">
         <v>1.43</v>
@@ -16382,7 +16382,7 @@
         <v>2.7</v>
       </c>
       <c r="L419" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="420">
@@ -16396,7 +16396,7 @@
         <v>0.68</v>
       </c>
       <c r="D420" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E420" t="n">
         <v>1.48</v>
@@ -16420,7 +16420,7 @@
         <v>2.7</v>
       </c>
       <c r="L420" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="421">
@@ -16434,7 +16434,7 @@
         <v>0.68</v>
       </c>
       <c r="D421" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E421" t="n">
         <v>1.48</v>
@@ -16458,7 +16458,7 @@
         <v>2.7</v>
       </c>
       <c r="L421" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="422">
@@ -16472,7 +16472,7 @@
         <v>0.65</v>
       </c>
       <c r="D422" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E422" t="n">
         <v>1.475</v>
@@ -16496,7 +16496,7 @@
         <v>2.7</v>
       </c>
       <c r="L422" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="423">
@@ -16510,7 +16510,7 @@
         <v>0.65</v>
       </c>
       <c r="D423" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E423" t="n">
         <v>1.475</v>
@@ -16534,7 +16534,7 @@
         <v>2.7</v>
       </c>
       <c r="L423" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="424">
@@ -16548,7 +16548,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D424" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E424" t="n">
         <v>1.56</v>
@@ -16572,7 +16572,7 @@
         <v>2.7</v>
       </c>
       <c r="L424" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="425">
@@ -16586,7 +16586,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D425" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E425" t="n">
         <v>1.57</v>
@@ -16610,7 +16610,7 @@
         <v>2.7</v>
       </c>
       <c r="L425" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="426">
@@ -16624,7 +16624,7 @@
         <v>0.68</v>
       </c>
       <c r="D426" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E426" t="n">
         <v>1.53</v>
@@ -16648,7 +16648,7 @@
         <v>2.7</v>
       </c>
       <c r="L426" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="427">
@@ -16662,7 +16662,7 @@
         <v>0.615</v>
       </c>
       <c r="D427" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E427" t="n">
         <v>1.49</v>
@@ -16686,7 +16686,7 @@
         <v>2.7</v>
       </c>
       <c r="L427" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="428">
@@ -16700,7 +16700,7 @@
         <v>0.58</v>
       </c>
       <c r="D428" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E428" t="n">
         <v>1.39</v>
@@ -16724,7 +16724,7 @@
         <v>2.7</v>
       </c>
       <c r="L428" t="n">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L428"/>
+  <dimension ref="A1:L429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16727,6 +16727,44 @@
         <v>2.9</v>
       </c>
     </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B429" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C429" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E429" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F429" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G429" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="H429" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="I429" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="J429" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K429" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L429" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -16244,7 +16244,7 @@
         <v>0.67</v>
       </c>
       <c r="D416" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E416" t="n">
         <v>1.37</v>
@@ -16282,7 +16282,7 @@
         <v>0.67</v>
       </c>
       <c r="D417" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E417" t="n">
         <v>1.37</v>
@@ -16320,7 +16320,7 @@
         <v>0.68</v>
       </c>
       <c r="D418" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E418" t="n">
         <v>1.37</v>
@@ -16358,7 +16358,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D419" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E419" t="n">
         <v>1.43</v>
@@ -16396,7 +16396,7 @@
         <v>0.68</v>
       </c>
       <c r="D420" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E420" t="n">
         <v>1.48</v>
@@ -16434,7 +16434,7 @@
         <v>0.68</v>
       </c>
       <c r="D421" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E421" t="n">
         <v>1.48</v>
@@ -16472,7 +16472,7 @@
         <v>0.65</v>
       </c>
       <c r="D422" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E422" t="n">
         <v>1.475</v>
@@ -16510,7 +16510,7 @@
         <v>0.65</v>
       </c>
       <c r="D423" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E423" t="n">
         <v>1.475</v>
@@ -16548,7 +16548,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D424" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E424" t="n">
         <v>1.56</v>
@@ -16586,7 +16586,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D425" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E425" t="n">
         <v>1.57</v>
@@ -16624,7 +16624,7 @@
         <v>0.68</v>
       </c>
       <c r="D426" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E426" t="n">
         <v>1.53</v>
@@ -16662,7 +16662,7 @@
         <v>0.615</v>
       </c>
       <c r="D427" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E427" t="n">
         <v>1.49</v>
@@ -16700,7 +16700,7 @@
         <v>0.58</v>
       </c>
       <c r="D428" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E428" t="n">
         <v>1.39</v>
@@ -16732,13 +16732,13 @@
         <v>44693</v>
       </c>
       <c r="B429" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="C429" t="n">
         <v>1.86</v>
       </c>
       <c r="D429" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E429" t="n">
         <v>2.75</v>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -16244,7 +16244,7 @@
         <v>0.67</v>
       </c>
       <c r="D416" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E416" t="n">
         <v>1.37</v>
@@ -16282,7 +16282,7 @@
         <v>0.67</v>
       </c>
       <c r="D417" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E417" t="n">
         <v>1.37</v>
@@ -16320,7 +16320,7 @@
         <v>0.68</v>
       </c>
       <c r="D418" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E418" t="n">
         <v>1.37</v>
@@ -16358,7 +16358,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D419" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E419" t="n">
         <v>1.43</v>
@@ -16396,7 +16396,7 @@
         <v>0.68</v>
       </c>
       <c r="D420" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E420" t="n">
         <v>1.48</v>
@@ -16434,7 +16434,7 @@
         <v>0.68</v>
       </c>
       <c r="D421" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E421" t="n">
         <v>1.48</v>
@@ -16472,7 +16472,7 @@
         <v>0.65</v>
       </c>
       <c r="D422" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E422" t="n">
         <v>1.475</v>
@@ -16510,7 +16510,7 @@
         <v>0.65</v>
       </c>
       <c r="D423" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E423" t="n">
         <v>1.475</v>
@@ -16548,7 +16548,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D424" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E424" t="n">
         <v>1.56</v>
@@ -16586,7 +16586,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D425" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E425" t="n">
         <v>1.57</v>
@@ -16624,7 +16624,7 @@
         <v>0.68</v>
       </c>
       <c r="D426" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E426" t="n">
         <v>1.53</v>
@@ -16662,7 +16662,7 @@
         <v>0.615</v>
       </c>
       <c r="D427" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E427" t="n">
         <v>1.49</v>
@@ -16700,7 +16700,7 @@
         <v>0.58</v>
       </c>
       <c r="D428" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E428" t="n">
         <v>1.39</v>
@@ -16732,13 +16732,13 @@
         <v>44693</v>
       </c>
       <c r="B429" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="C429" t="n">
         <v>1.86</v>
       </c>
       <c r="D429" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E429" t="n">
         <v>2.75</v>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L429"/>
+  <dimension ref="A1:L430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16765,6 +16765,44 @@
         <v>4.55</v>
       </c>
     </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B430" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C430" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E430" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F430" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="G430" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H430" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="I430" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="J430" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K430" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="L430" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L430"/>
+  <dimension ref="A1:L431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16803,6 +16803,44 @@
         <v>3.9</v>
       </c>
     </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B431" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C431" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E431" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F431" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G431" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="H431" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="I431" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="J431" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K431" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="L431" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L431"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16841,6 +16841,44 @@
         <v>3.77</v>
       </c>
     </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B432" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C432" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E432" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F432" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G432" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H432" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="I432" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J432" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="K432" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L432" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16879,6 +16879,44 @@
         <v>3.67</v>
       </c>
     </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B433" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C433" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E433" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F433" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G433" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H433" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I433" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="J433" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K433" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L433" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L433"/>
+  <dimension ref="A1:L434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16917,6 +16917,44 @@
         <v>3.67</v>
       </c>
     </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B434" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C434" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E434" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F434" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G434" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H434" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="I434" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="J434" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K434" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="L434" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -16244,7 +16244,7 @@
         <v>0.67</v>
       </c>
       <c r="D416" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E416" t="n">
         <v>1.37</v>
@@ -16282,7 +16282,7 @@
         <v>0.67</v>
       </c>
       <c r="D417" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E417" t="n">
         <v>1.37</v>
@@ -16320,7 +16320,7 @@
         <v>0.68</v>
       </c>
       <c r="D418" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E418" t="n">
         <v>1.37</v>
@@ -16358,7 +16358,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D419" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E419" t="n">
         <v>1.43</v>
@@ -16396,7 +16396,7 @@
         <v>0.68</v>
       </c>
       <c r="D420" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E420" t="n">
         <v>1.48</v>
@@ -16434,7 +16434,7 @@
         <v>0.68</v>
       </c>
       <c r="D421" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E421" t="n">
         <v>1.48</v>
@@ -16472,7 +16472,7 @@
         <v>0.65</v>
       </c>
       <c r="D422" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E422" t="n">
         <v>1.475</v>
@@ -16510,7 +16510,7 @@
         <v>0.65</v>
       </c>
       <c r="D423" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E423" t="n">
         <v>1.475</v>
@@ -16548,7 +16548,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D424" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E424" t="n">
         <v>1.56</v>
@@ -16586,7 +16586,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D425" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E425" t="n">
         <v>1.57</v>
@@ -16624,7 +16624,7 @@
         <v>0.68</v>
       </c>
       <c r="D426" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E426" t="n">
         <v>1.53</v>
@@ -16662,7 +16662,7 @@
         <v>0.615</v>
       </c>
       <c r="D427" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E427" t="n">
         <v>1.49</v>
@@ -16700,7 +16700,7 @@
         <v>0.58</v>
       </c>
       <c r="D428" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E428" t="n">
         <v>1.39</v>
@@ -16738,7 +16738,7 @@
         <v>1.86</v>
       </c>
       <c r="D429" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E429" t="n">
         <v>2.75</v>
@@ -16776,7 +16776,7 @@
         <v>1.73</v>
       </c>
       <c r="D430" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E430" t="n">
         <v>2.44</v>
@@ -16814,7 +16814,7 @@
         <v>1.56</v>
       </c>
       <c r="D431" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E431" t="n">
         <v>2.36</v>
@@ -16852,7 +16852,7 @@
         <v>1.54</v>
       </c>
       <c r="D432" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E432" t="n">
         <v>2.28</v>
@@ -16890,7 +16890,7 @@
         <v>1.67</v>
       </c>
       <c r="D433" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E433" t="n">
         <v>2.49</v>
@@ -16922,37 +16922,37 @@
         <v>44722</v>
       </c>
       <c r="B434" t="n">
-        <v>1.22</v>
+        <v>1.128</v>
       </c>
       <c r="C434" t="n">
-        <v>1.67</v>
+        <v>1.632</v>
       </c>
       <c r="D434" t="n">
-        <v>0.76</v>
+        <v>0.726</v>
       </c>
       <c r="E434" t="n">
-        <v>2.49</v>
+        <v>2.465</v>
       </c>
       <c r="F434" t="n">
-        <v>2.84</v>
+        <v>2.764</v>
       </c>
       <c r="G434" t="n">
-        <v>2.87</v>
+        <v>2.845</v>
       </c>
       <c r="H434" t="n">
-        <v>2.97</v>
+        <v>2.936</v>
       </c>
       <c r="I434" t="n">
-        <v>3.32</v>
+        <v>3.276</v>
       </c>
       <c r="J434" t="n">
-        <v>3.3</v>
+        <v>3.281</v>
       </c>
       <c r="K434" t="n">
-        <v>3.52</v>
+        <v>3.48</v>
       </c>
       <c r="L434" t="n">
-        <v>3.65</v>
+        <v>3.596</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -16244,7 +16244,7 @@
         <v>0.67</v>
       </c>
       <c r="D416" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E416" t="n">
         <v>1.37</v>
@@ -16282,7 +16282,7 @@
         <v>0.67</v>
       </c>
       <c r="D417" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E417" t="n">
         <v>1.37</v>
@@ -16320,7 +16320,7 @@
         <v>0.68</v>
       </c>
       <c r="D418" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E418" t="n">
         <v>1.37</v>
@@ -16358,7 +16358,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D419" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E419" t="n">
         <v>1.43</v>
@@ -16396,7 +16396,7 @@
         <v>0.68</v>
       </c>
       <c r="D420" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E420" t="n">
         <v>1.48</v>
@@ -16434,7 +16434,7 @@
         <v>0.68</v>
       </c>
       <c r="D421" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E421" t="n">
         <v>1.48</v>
@@ -16472,7 +16472,7 @@
         <v>0.65</v>
       </c>
       <c r="D422" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E422" t="n">
         <v>1.475</v>
@@ -16510,7 +16510,7 @@
         <v>0.65</v>
       </c>
       <c r="D423" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E423" t="n">
         <v>1.475</v>
@@ -16548,7 +16548,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D424" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E424" t="n">
         <v>1.56</v>
@@ -16586,7 +16586,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D425" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E425" t="n">
         <v>1.57</v>
@@ -16624,7 +16624,7 @@
         <v>0.68</v>
       </c>
       <c r="D426" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E426" t="n">
         <v>1.53</v>
@@ -16662,7 +16662,7 @@
         <v>0.615</v>
       </c>
       <c r="D427" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E427" t="n">
         <v>1.49</v>
@@ -16700,7 +16700,7 @@
         <v>0.58</v>
       </c>
       <c r="D428" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E428" t="n">
         <v>1.39</v>
@@ -16738,7 +16738,7 @@
         <v>1.86</v>
       </c>
       <c r="D429" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E429" t="n">
         <v>2.75</v>
@@ -16776,7 +16776,7 @@
         <v>1.73</v>
       </c>
       <c r="D430" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E430" t="n">
         <v>2.44</v>
@@ -16814,7 +16814,7 @@
         <v>1.56</v>
       </c>
       <c r="D431" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E431" t="n">
         <v>2.36</v>
@@ -16852,7 +16852,7 @@
         <v>1.54</v>
       </c>
       <c r="D432" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E432" t="n">
         <v>2.28</v>
@@ -16890,7 +16890,7 @@
         <v>1.67</v>
       </c>
       <c r="D433" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E433" t="n">
         <v>2.49</v>
@@ -16922,37 +16922,37 @@
         <v>44722</v>
       </c>
       <c r="B434" t="n">
-        <v>1.128</v>
+        <v>1.22</v>
       </c>
       <c r="C434" t="n">
-        <v>1.632</v>
+        <v>1.67</v>
       </c>
       <c r="D434" t="n">
-        <v>0.726</v>
+        <v>0.76</v>
       </c>
       <c r="E434" t="n">
-        <v>2.465</v>
+        <v>2.49</v>
       </c>
       <c r="F434" t="n">
-        <v>2.764</v>
+        <v>2.84</v>
       </c>
       <c r="G434" t="n">
-        <v>2.845</v>
+        <v>2.87</v>
       </c>
       <c r="H434" t="n">
-        <v>2.936</v>
+        <v>2.97</v>
       </c>
       <c r="I434" t="n">
-        <v>3.276</v>
+        <v>3.32</v>
       </c>
       <c r="J434" t="n">
-        <v>3.281</v>
+        <v>3.3</v>
       </c>
       <c r="K434" t="n">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="L434" t="n">
-        <v>3.596</v>
+        <v>3.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L434"/>
+  <dimension ref="A1:L435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16955,6 +16955,44 @@
         <v>3.65</v>
       </c>
     </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B435" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C435" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E435" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F435" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G435" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="H435" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="I435" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="J435" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K435" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="L435" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L435"/>
+  <dimension ref="A1:L436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16993,6 +16993,44 @@
         <v>3.82</v>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B436" t="n">
+        <v>1.229</v>
+      </c>
+      <c r="C436" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E436" t="n">
+        <v>2.683</v>
+      </c>
+      <c r="F436" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="G436" t="n">
+        <v>3.042</v>
+      </c>
+      <c r="H436" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="I436" t="n">
+        <v>3.434</v>
+      </c>
+      <c r="J436" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K436" t="n">
+        <v>3.708</v>
+      </c>
+      <c r="L436" t="n">
+        <v>3.836</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L436"/>
+  <dimension ref="A1:L438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16998,37 +16998,113 @@
         <v>44726</v>
       </c>
       <c r="B436" t="n">
-        <v>1.229</v>
+        <v>1.32</v>
       </c>
       <c r="C436" t="n">
-        <v>1.778</v>
+        <v>1.84</v>
       </c>
       <c r="D436" t="n">
         <v>0.76</v>
       </c>
       <c r="E436" t="n">
-        <v>2.683</v>
+        <v>2.72</v>
       </c>
       <c r="F436" t="n">
-        <v>2.926</v>
+        <v>3</v>
       </c>
       <c r="G436" t="n">
-        <v>3.042</v>
+        <v>3.09</v>
       </c>
       <c r="H436" t="n">
-        <v>3.099</v>
+        <v>3.17</v>
       </c>
       <c r="I436" t="n">
-        <v>3.434</v>
+        <v>3.5</v>
       </c>
       <c r="J436" t="n">
-        <v>3.459</v>
+        <v>3.5</v>
       </c>
       <c r="K436" t="n">
-        <v>3.708</v>
+        <v>3.77</v>
       </c>
       <c r="L436" t="n">
-        <v>3.836</v>
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B437" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C437" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E437" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F437" t="n">
+        <v>3</v>
+      </c>
+      <c r="G437" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H437" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="I437" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="J437" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K437" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="L437" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B438" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C438" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E438" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F438" t="n">
+        <v>3</v>
+      </c>
+      <c r="G438" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H438" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="I438" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="J438" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K438" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="L438" t="n">
+        <v>3.92</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L438"/>
+  <dimension ref="A1:L439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17107,6 +17107,44 @@
         <v>3.92</v>
       </c>
     </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B439" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C439" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E439" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F439" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="G439" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="H439" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I439" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="J439" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K439" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="L439" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L439"/>
+  <dimension ref="A1:L440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17145,6 +17145,44 @@
         <v>3.74</v>
       </c>
     </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B440" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C440" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E440" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F440" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G440" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H440" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="I440" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="J440" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K440" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="L440" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -17150,37 +17150,37 @@
         <v>44735</v>
       </c>
       <c r="B440" t="n">
-        <v>1.12</v>
+        <v>1.029</v>
       </c>
       <c r="C440" t="n">
-        <v>1.76</v>
+        <v>1.709</v>
       </c>
       <c r="D440" t="n">
         <v>0.76</v>
       </c>
       <c r="E440" t="n">
-        <v>2.48</v>
+        <v>2.445</v>
       </c>
       <c r="F440" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="G440" t="n">
-        <v>2.88</v>
+        <v>2.855</v>
       </c>
       <c r="H440" t="n">
-        <v>2.97</v>
+        <v>2.921</v>
       </c>
       <c r="I440" t="n">
-        <v>3.39</v>
+        <v>3.348</v>
       </c>
       <c r="J440" t="n">
-        <v>3.35</v>
+        <v>3.317</v>
       </c>
       <c r="K440" t="n">
-        <v>3.62</v>
+        <v>3.582</v>
       </c>
       <c r="L440" t="n">
-        <v>3.74</v>
+        <v>3.704</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L440"/>
+  <dimension ref="A1:L441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17150,37 +17150,75 @@
         <v>44735</v>
       </c>
       <c r="B440" t="n">
-        <v>1.029</v>
+        <v>1.12</v>
       </c>
       <c r="C440" t="n">
-        <v>1.709</v>
+        <v>1.76</v>
       </c>
       <c r="D440" t="n">
         <v>0.76</v>
       </c>
       <c r="E440" t="n">
-        <v>2.445</v>
+        <v>2.48</v>
       </c>
       <c r="F440" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G440" t="n">
-        <v>2.855</v>
+        <v>2.88</v>
       </c>
       <c r="H440" t="n">
-        <v>2.921</v>
+        <v>2.97</v>
       </c>
       <c r="I440" t="n">
-        <v>3.348</v>
+        <v>3.39</v>
       </c>
       <c r="J440" t="n">
-        <v>3.317</v>
+        <v>3.35</v>
       </c>
       <c r="K440" t="n">
-        <v>3.582</v>
+        <v>3.62</v>
       </c>
       <c r="L440" t="n">
-        <v>3.704</v>
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B441" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C441" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E441" t="n">
+        <v>2.501</v>
+      </c>
+      <c r="F441" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G441" t="n">
+        <v>2.905</v>
+      </c>
+      <c r="H441" t="n">
+        <v>2.972</v>
+      </c>
+      <c r="I441" t="n">
+        <v>3.429</v>
+      </c>
+      <c r="J441" t="n">
+        <v>3.409</v>
+      </c>
+      <c r="K441" t="n">
+        <v>3.664</v>
+      </c>
+      <c r="L441" t="n">
+        <v>3.786</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L441"/>
+  <dimension ref="A1:L442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17197,28 +17197,66 @@
         <v>0.76</v>
       </c>
       <c r="E441" t="n">
-        <v>2.501</v>
+        <v>2.53</v>
       </c>
       <c r="F441" t="n">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="G441" t="n">
-        <v>2.905</v>
+        <v>2.93</v>
       </c>
       <c r="H441" t="n">
-        <v>2.972</v>
+        <v>3.02</v>
       </c>
       <c r="I441" t="n">
-        <v>3.429</v>
+        <v>3.47</v>
       </c>
       <c r="J441" t="n">
-        <v>3.409</v>
+        <v>3.44</v>
       </c>
       <c r="K441" t="n">
-        <v>3.664</v>
+        <v>3.7</v>
       </c>
       <c r="L441" t="n">
-        <v>3.786</v>
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B442" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C442" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E442" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F442" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G442" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H442" t="n">
+        <v>3</v>
+      </c>
+      <c r="I442" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J442" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="K442" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="L442" t="n">
+        <v>3.87</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L442"/>
+  <dimension ref="A1:L443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17259,6 +17259,44 @@
         <v>3.87</v>
       </c>
     </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B443" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C443" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E443" t="n">
+        <v>2.461</v>
+      </c>
+      <c r="F443" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G443" t="n">
+        <v>2.809</v>
+      </c>
+      <c r="H443" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="I443" t="n">
+        <v>3.429</v>
+      </c>
+      <c r="J443" t="n">
+        <v>3.398</v>
+      </c>
+      <c r="K443" t="n">
+        <v>3.664</v>
+      </c>
+      <c r="L443" t="n">
+        <v>3.806</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L443"/>
+  <dimension ref="A1:L444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17267,34 +17267,72 @@
         <v>1.19</v>
       </c>
       <c r="C443" t="n">
-        <v>1.689</v>
+        <v>1.75</v>
       </c>
       <c r="D443" t="n">
         <v>0.76</v>
       </c>
       <c r="E443" t="n">
-        <v>2.461</v>
+        <v>2.49</v>
       </c>
       <c r="F443" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G443" t="n">
-        <v>2.809</v>
+        <v>2.84</v>
       </c>
       <c r="H443" t="n">
-        <v>2.901</v>
+        <v>2.95</v>
       </c>
       <c r="I443" t="n">
-        <v>3.429</v>
+        <v>3.47</v>
       </c>
       <c r="J443" t="n">
-        <v>3.398</v>
+        <v>3.44</v>
       </c>
       <c r="K443" t="n">
-        <v>3.664</v>
+        <v>3.7</v>
       </c>
       <c r="L443" t="n">
-        <v>3.806</v>
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B444" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C444" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E444" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F444" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G444" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H444" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="I444" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="J444" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K444" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="L444" t="n">
+        <v>3.77</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -17302,37 +17302,37 @@
         <v>44743</v>
       </c>
       <c r="B444" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="C444" t="n">
-        <v>1.75</v>
+        <v>1.689</v>
       </c>
       <c r="D444" t="n">
         <v>0.76</v>
       </c>
       <c r="E444" t="n">
-        <v>2.47</v>
+        <v>2.441</v>
       </c>
       <c r="F444" t="n">
-        <v>2.79</v>
+        <v>2.749</v>
       </c>
       <c r="G444" t="n">
-        <v>2.79</v>
+        <v>2.763</v>
       </c>
       <c r="H444" t="n">
-        <v>2.91</v>
+        <v>2.871</v>
       </c>
       <c r="I444" t="n">
-        <v>3.42</v>
+        <v>3.378</v>
       </c>
       <c r="J444" t="n">
-        <v>3.37</v>
+        <v>3.337</v>
       </c>
       <c r="K444" t="n">
-        <v>3.66</v>
+        <v>3.622</v>
       </c>
       <c r="L444" t="n">
-        <v>3.77</v>
+        <v>3.734</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L444"/>
+  <dimension ref="A1:L445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17302,37 +17302,75 @@
         <v>44743</v>
       </c>
       <c r="B444" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="C444" t="n">
-        <v>1.689</v>
+        <v>1.75</v>
       </c>
       <c r="D444" t="n">
         <v>0.76</v>
       </c>
       <c r="E444" t="n">
-        <v>2.441</v>
+        <v>2.47</v>
       </c>
       <c r="F444" t="n">
-        <v>2.749</v>
+        <v>2.79</v>
       </c>
       <c r="G444" t="n">
-        <v>2.763</v>
+        <v>2.79</v>
       </c>
       <c r="H444" t="n">
-        <v>2.871</v>
+        <v>2.91</v>
       </c>
       <c r="I444" t="n">
-        <v>3.378</v>
+        <v>3.42</v>
       </c>
       <c r="J444" t="n">
-        <v>3.337</v>
+        <v>3.37</v>
       </c>
       <c r="K444" t="n">
-        <v>3.622</v>
+        <v>3.66</v>
       </c>
       <c r="L444" t="n">
-        <v>3.734</v>
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B445" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C445" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E445" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="F445" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G445" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H445" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I445" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="J445" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K445" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="L445" t="n">
+        <v>3.67</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L445"/>
+  <dimension ref="A1:L446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17373,6 +17373,44 @@
         <v>3.67</v>
       </c>
     </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B446" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C446" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E446" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F446" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G446" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H446" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I446" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J446" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K446" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="L446" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -17378,37 +17378,37 @@
         <v>44747</v>
       </c>
       <c r="B446" t="n">
-        <v>1.19</v>
+        <v>1.125</v>
       </c>
       <c r="C446" t="n">
-        <v>1.75</v>
+        <v>1.699</v>
       </c>
       <c r="D446" t="n">
         <v>0.76</v>
       </c>
       <c r="E446" t="n">
-        <v>2.47</v>
+        <v>2.441</v>
       </c>
       <c r="F446" t="n">
-        <v>2.76</v>
+        <v>2.719</v>
       </c>
       <c r="G446" t="n">
-        <v>2.77</v>
+        <v>2.743</v>
       </c>
       <c r="H446" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="I446" t="n">
-        <v>3.4</v>
+        <v>3.358</v>
       </c>
       <c r="J446" t="n">
-        <v>3.38</v>
+        <v>3.353</v>
       </c>
       <c r="K446" t="n">
-        <v>3.62</v>
+        <v>3.582</v>
       </c>
       <c r="L446" t="n">
-        <v>3.74</v>
+        <v>3.704</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -17378,37 +17378,37 @@
         <v>44747</v>
       </c>
       <c r="B446" t="n">
-        <v>1.125</v>
+        <v>1.19</v>
       </c>
       <c r="C446" t="n">
-        <v>1.699</v>
+        <v>1.75</v>
       </c>
       <c r="D446" t="n">
         <v>0.76</v>
       </c>
       <c r="E446" t="n">
-        <v>2.441</v>
+        <v>2.47</v>
       </c>
       <c r="F446" t="n">
-        <v>2.719</v>
+        <v>2.76</v>
       </c>
       <c r="G446" t="n">
-        <v>2.743</v>
+        <v>2.77</v>
       </c>
       <c r="H446" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="I446" t="n">
-        <v>3.358</v>
+        <v>3.4</v>
       </c>
       <c r="J446" t="n">
-        <v>3.353</v>
+        <v>3.38</v>
       </c>
       <c r="K446" t="n">
-        <v>3.582</v>
+        <v>3.62</v>
       </c>
       <c r="L446" t="n">
-        <v>3.704</v>
+        <v>3.74</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L446"/>
+  <dimension ref="A1:L447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17411,6 +17411,44 @@
         <v>3.74</v>
       </c>
     </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B447" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="C447" t="n">
+        <v>1.668</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E447" t="n">
+        <v>2.309</v>
+      </c>
+      <c r="F447" t="n">
+        <v>2.476</v>
+      </c>
+      <c r="G447" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="H447" t="n">
+        <v>2.567</v>
+      </c>
+      <c r="I447" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="J447" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="K447" t="n">
+        <v>3.348</v>
+      </c>
+      <c r="L447" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L447"/>
+  <dimension ref="A1:L448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17416,37 +17416,75 @@
         <v>44756</v>
       </c>
       <c r="B447" t="n">
-        <v>1.155</v>
+        <v>1.22</v>
       </c>
       <c r="C447" t="n">
-        <v>1.668</v>
+        <v>1.72</v>
       </c>
       <c r="D447" t="n">
         <v>0.76</v>
       </c>
       <c r="E447" t="n">
-        <v>2.309</v>
+        <v>2.34</v>
       </c>
       <c r="F447" t="n">
-        <v>2.476</v>
+        <v>2.53</v>
       </c>
       <c r="G447" t="n">
-        <v>2.49</v>
+        <v>2.52</v>
       </c>
       <c r="H447" t="n">
-        <v>2.567</v>
+        <v>2.62</v>
       </c>
       <c r="I447" t="n">
-        <v>3.104</v>
+        <v>3.15</v>
       </c>
       <c r="J447" t="n">
-        <v>3.083</v>
+        <v>3.11</v>
       </c>
       <c r="K447" t="n">
-        <v>3.348</v>
+        <v>3.39</v>
       </c>
       <c r="L447" t="n">
-        <v>3.45</v>
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B448" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C448" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E448" t="n">
+        <v>2.349</v>
+      </c>
+      <c r="F448" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="G448" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H448" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I448" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J448" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K448" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="L448" t="n">
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -17463,7 +17463,7 @@
         <v>0.76</v>
       </c>
       <c r="E448" t="n">
-        <v>2.349</v>
+        <v>2.38</v>
       </c>
       <c r="F448" t="n">
         <v>2.57</v>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L448"/>
+  <dimension ref="A1:L449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17487,6 +17487,44 @@
         <v>3.47</v>
       </c>
     </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B449" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C449" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E449" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F449" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G449" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H449" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I449" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J449" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="K449" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L449" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -17492,37 +17492,37 @@
         <v>44760</v>
       </c>
       <c r="B449" t="n">
-        <v>1.22</v>
+        <v>1.155</v>
       </c>
       <c r="C449" t="n">
-        <v>1.74</v>
+        <v>1.689</v>
       </c>
       <c r="D449" t="n">
         <v>0.76</v>
       </c>
       <c r="E449" t="n">
-        <v>2.36</v>
+        <v>2.329</v>
       </c>
       <c r="F449" t="n">
-        <v>2.56</v>
+        <v>2.506</v>
       </c>
       <c r="G449" t="n">
-        <v>2.53</v>
+        <v>2.506</v>
       </c>
       <c r="H449" t="n">
-        <v>2.67</v>
+        <v>2.617</v>
       </c>
       <c r="I449" t="n">
-        <v>3.18</v>
+        <v>3.135</v>
       </c>
       <c r="J449" t="n">
-        <v>3.14</v>
+        <v>3.119</v>
       </c>
       <c r="K449" t="n">
-        <v>3.35</v>
+        <v>3.317</v>
       </c>
       <c r="L449" t="n">
-        <v>3.44</v>
+        <v>3.409</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L449"/>
+  <dimension ref="A1:L450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17492,37 +17492,75 @@
         <v>44760</v>
       </c>
       <c r="B449" t="n">
-        <v>1.155</v>
+        <v>1.22</v>
       </c>
       <c r="C449" t="n">
-        <v>1.689</v>
+        <v>1.74</v>
       </c>
       <c r="D449" t="n">
         <v>0.76</v>
       </c>
       <c r="E449" t="n">
-        <v>2.329</v>
+        <v>2.36</v>
       </c>
       <c r="F449" t="n">
-        <v>2.506</v>
+        <v>2.56</v>
       </c>
       <c r="G449" t="n">
-        <v>2.506</v>
+        <v>2.53</v>
       </c>
       <c r="H449" t="n">
-        <v>2.617</v>
+        <v>2.67</v>
       </c>
       <c r="I449" t="n">
-        <v>3.135</v>
+        <v>3.18</v>
       </c>
       <c r="J449" t="n">
-        <v>3.119</v>
+        <v>3.14</v>
       </c>
       <c r="K449" t="n">
-        <v>3.317</v>
+        <v>3.35</v>
       </c>
       <c r="L449" t="n">
-        <v>3.409</v>
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B450" t="n">
+        <v>1.276</v>
+      </c>
+      <c r="C450" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E450" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F450" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G450" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H450" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I450" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="J450" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K450" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="L450" t="n">
+        <v>3.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L450"/>
+  <dimension ref="A1:L451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17530,7 +17530,7 @@
         <v>44767</v>
       </c>
       <c r="B450" t="n">
-        <v>1.276</v>
+        <v>1.34</v>
       </c>
       <c r="C450" t="n">
         <v>1.79</v>
@@ -17560,6 +17560,44 @@
         <v>3.32</v>
       </c>
       <c r="L450" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B451" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C451" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E451" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="F451" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G451" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H451" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I451" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J451" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K451" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="L451" t="n">
         <v>3.42</v>
       </c>
     </row>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -17568,37 +17568,37 @@
         <v>44768</v>
       </c>
       <c r="B451" t="n">
-        <v>1.34</v>
+        <v>1.276</v>
       </c>
       <c r="C451" t="n">
-        <v>1.78</v>
+        <v>1.719</v>
       </c>
       <c r="D451" t="n">
         <v>0.76</v>
       </c>
       <c r="E451" t="n">
-        <v>2.35</v>
+        <v>2.319</v>
       </c>
       <c r="F451" t="n">
-        <v>2.55</v>
+        <v>2.496</v>
       </c>
       <c r="G451" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="H451" t="n">
-        <v>2.62</v>
+        <v>2.567</v>
       </c>
       <c r="I451" t="n">
-        <v>3.12</v>
+        <v>3.074</v>
       </c>
       <c r="J451" t="n">
-        <v>3.09</v>
+        <v>3.069</v>
       </c>
       <c r="K451" t="n">
-        <v>3.32</v>
+        <v>3.277</v>
       </c>
       <c r="L451" t="n">
-        <v>3.42</v>
+        <v>3.378</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -17568,37 +17568,37 @@
         <v>44768</v>
       </c>
       <c r="B451" t="n">
-        <v>1.276</v>
+        <v>1.34</v>
       </c>
       <c r="C451" t="n">
-        <v>1.719</v>
+        <v>1.78</v>
       </c>
       <c r="D451" t="n">
         <v>0.76</v>
       </c>
       <c r="E451" t="n">
-        <v>2.319</v>
+        <v>2.35</v>
       </c>
       <c r="F451" t="n">
-        <v>2.496</v>
+        <v>2.55</v>
       </c>
       <c r="G451" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="H451" t="n">
-        <v>2.567</v>
+        <v>2.62</v>
       </c>
       <c r="I451" t="n">
-        <v>3.074</v>
+        <v>3.12</v>
       </c>
       <c r="J451" t="n">
-        <v>3.069</v>
+        <v>3.09</v>
       </c>
       <c r="K451" t="n">
-        <v>3.277</v>
+        <v>3.32</v>
       </c>
       <c r="L451" t="n">
-        <v>3.378</v>
+        <v>3.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L451"/>
+  <dimension ref="A1:L452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17601,6 +17601,44 @@
         <v>3.42</v>
       </c>
     </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B452" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C452" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E452" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F452" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G452" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="H452" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I452" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J452" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K452" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="L452" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L452"/>
+  <dimension ref="A1:L453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17639,6 +17639,44 @@
         <v>3.29</v>
       </c>
     </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B453" t="n">
+        <v>1.334</v>
+      </c>
+      <c r="C453" t="n">
+        <v>1.622</v>
+      </c>
+      <c r="D453" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E453" t="n">
+        <v>2.062</v>
+      </c>
+      <c r="F453" t="n">
+        <v>2.364</v>
+      </c>
+      <c r="G453" t="n">
+        <v>2.409</v>
+      </c>
+      <c r="H453" t="n">
+        <v>2.466</v>
+      </c>
+      <c r="I453" t="n">
+        <v>2.921</v>
+      </c>
+      <c r="J453" t="n">
+        <v>2.921</v>
+      </c>
+      <c r="K453" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="L453" t="n">
+        <v>3.205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L453"/>
+  <dimension ref="A1:L454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17644,37 +17644,75 @@
         <v>44775</v>
       </c>
       <c r="B453" t="n">
-        <v>1.334</v>
+        <v>1.4</v>
       </c>
       <c r="C453" t="n">
-        <v>1.622</v>
+        <v>1.67</v>
       </c>
       <c r="D453" t="n">
         <v>0.76</v>
       </c>
       <c r="E453" t="n">
-        <v>2.062</v>
+        <v>2.1</v>
       </c>
       <c r="F453" t="n">
-        <v>2.364</v>
+        <v>2.42</v>
       </c>
       <c r="G453" t="n">
-        <v>2.409</v>
+        <v>2.44</v>
       </c>
       <c r="H453" t="n">
-        <v>2.466</v>
+        <v>2.52</v>
       </c>
       <c r="I453" t="n">
-        <v>2.921</v>
+        <v>2.97</v>
       </c>
       <c r="J453" t="n">
-        <v>2.921</v>
+        <v>2.95</v>
       </c>
       <c r="K453" t="n">
-        <v>3.104</v>
+        <v>3.15</v>
       </c>
       <c r="L453" t="n">
-        <v>3.205</v>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B454" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C454" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D454" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E454" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F454" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G454" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H454" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I454" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="J454" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K454" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L454" t="n">
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L454"/>
+  <dimension ref="A1:L455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17715,6 +17715,44 @@
         <v>3.25</v>
       </c>
     </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="C455" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E455" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F455" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G455" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H455" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I455" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="J455" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K455" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L455" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L455"/>
+  <dimension ref="A1:L457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17753,6 +17753,82 @@
         <v>3.25</v>
       </c>
     </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>44779</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E456" t="n">
+        <v>2.062</v>
+      </c>
+      <c r="F456" t="n">
+        <v>2.364</v>
+      </c>
+      <c r="G456" t="n">
+        <v>2.409</v>
+      </c>
+      <c r="H456" t="n">
+        <v>1.521</v>
+      </c>
+      <c r="I456" t="n">
+        <v>2.921</v>
+      </c>
+      <c r="J456" t="n">
+        <v>2.921</v>
+      </c>
+      <c r="K456" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="L456" t="n">
+        <v>3.205</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B457" t="n">
+        <v>1.294</v>
+      </c>
+      <c r="C457" t="n">
+        <v>1.602</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E457" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F457" t="n">
+        <v>2.364</v>
+      </c>
+      <c r="G457" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="H457" t="n">
+        <v>2.506</v>
+      </c>
+      <c r="I457" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="J457" t="n">
+        <v>2.977</v>
+      </c>
+      <c r="K457" t="n">
+        <v>3.206</v>
+      </c>
+      <c r="L457" t="n">
+        <v>3.307</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L457"/>
+  <dimension ref="A1:L458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17796,37 +17796,75 @@
         <v>44782</v>
       </c>
       <c r="B457" t="n">
-        <v>1.294</v>
+        <v>1.36</v>
       </c>
       <c r="C457" t="n">
-        <v>1.602</v>
+        <v>1.64</v>
       </c>
       <c r="D457" t="n">
         <v>0.76</v>
       </c>
       <c r="E457" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="F457" t="n">
-        <v>2.364</v>
+        <v>2.4</v>
       </c>
       <c r="G457" t="n">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="H457" t="n">
-        <v>2.506</v>
+        <v>2.56</v>
       </c>
       <c r="I457" t="n">
-        <v>3.023</v>
+        <v>3.07</v>
       </c>
       <c r="J457" t="n">
-        <v>2.977</v>
+        <v>3</v>
       </c>
       <c r="K457" t="n">
-        <v>3.206</v>
+        <v>3.25</v>
       </c>
       <c r="L457" t="n">
-        <v>3.307</v>
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B458" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C458" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E458" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F458" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G458" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H458" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I458" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="J458" t="n">
+        <v>3</v>
+      </c>
+      <c r="K458" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L458" t="n">
+        <v>3.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L458"/>
+  <dimension ref="A1:L459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17867,6 +17867,44 @@
         <v>3.35</v>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B459" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C459" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E459" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F459" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G459" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H459" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I459" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J459" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K459" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="L459" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L459"/>
+  <dimension ref="A1:L460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17905,6 +17905,44 @@
         <v>3.27</v>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B460" t="n">
+        <v>1.274</v>
+      </c>
+      <c r="C460" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E460" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F460" t="n">
+        <v>2.197</v>
+      </c>
+      <c r="G460" t="n">
+        <v>2.323</v>
+      </c>
+      <c r="H460" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="I460" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="J460" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="K460" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="L460" t="n">
+        <v>3.226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -17910,37 +17910,37 @@
         <v>44789</v>
       </c>
       <c r="B460" t="n">
-        <v>1.274</v>
+        <v>1.34</v>
       </c>
       <c r="C460" t="n">
-        <v>1.502</v>
+        <v>1.54</v>
       </c>
       <c r="D460" t="n">
         <v>0.76</v>
       </c>
       <c r="E460" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="F460" t="n">
-        <v>2.197</v>
+        <v>2.23</v>
       </c>
       <c r="G460" t="n">
-        <v>2.323</v>
+        <v>2.35</v>
       </c>
       <c r="H460" t="n">
-        <v>2.375</v>
+        <v>2.42</v>
       </c>
       <c r="I460" t="n">
-        <v>2.891</v>
+        <v>2.94</v>
       </c>
       <c r="J460" t="n">
-        <v>2.885</v>
+        <v>2.91</v>
       </c>
       <c r="K460" t="n">
-        <v>3.104</v>
+        <v>3.14</v>
       </c>
       <c r="L460" t="n">
-        <v>3.226</v>
+        <v>3.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L460"/>
+  <dimension ref="A1:L461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17943,6 +17943,44 @@
         <v>3.27</v>
       </c>
     </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B461" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C461" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E461" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F461" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G461" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H461" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I461" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J461" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K461" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L461" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L461"/>
+  <dimension ref="A1:L462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17981,6 +17981,44 @@
         <v>3.37</v>
       </c>
     </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B462" t="n">
+        <v>1.304</v>
+      </c>
+      <c r="C462" t="n">
+        <v>1.563</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E462" t="n">
+        <v>2.056</v>
+      </c>
+      <c r="F462" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="G462" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H462" t="n">
+        <v>2.577</v>
+      </c>
+      <c r="I462" t="n">
+        <v>3.053</v>
+      </c>
+      <c r="J462" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="K462" t="n">
+        <v>3.206</v>
+      </c>
+      <c r="L462" t="n">
+        <v>3.276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -17986,37 +17986,37 @@
         <v>44796</v>
       </c>
       <c r="B462" t="n">
-        <v>1.304</v>
+        <v>1.37</v>
       </c>
       <c r="C462" t="n">
-        <v>1.563</v>
+        <v>1.6</v>
       </c>
       <c r="D462" t="n">
         <v>0.76</v>
       </c>
       <c r="E462" t="n">
-        <v>2.056</v>
+        <v>2.09</v>
       </c>
       <c r="F462" t="n">
-        <v>2.368</v>
+        <v>2.4</v>
       </c>
       <c r="G462" t="n">
-        <v>2.48</v>
+        <v>2.51</v>
       </c>
       <c r="H462" t="n">
-        <v>2.577</v>
+        <v>2.62</v>
       </c>
       <c r="I462" t="n">
-        <v>3.053</v>
+        <v>3.1</v>
       </c>
       <c r="J462" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="K462" t="n">
-        <v>3.206</v>
+        <v>3.25</v>
       </c>
       <c r="L462" t="n">
-        <v>3.276</v>
+        <v>3.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L462"/>
+  <dimension ref="A1:L463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18019,6 +18019,44 @@
         <v>3.32</v>
       </c>
     </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B463" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C463" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E463" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F463" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="G463" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H463" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I463" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="J463" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K463" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L463" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L463"/>
+  <dimension ref="A1:L464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18057,6 +18057,44 @@
         <v>3.32</v>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B464" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="C464" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E464" t="n">
+        <v>2.066</v>
+      </c>
+      <c r="F464" t="n">
+        <v>2.359</v>
+      </c>
+      <c r="G464" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H464" t="n">
+        <v>2.582</v>
+      </c>
+      <c r="I464" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="J464" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="K464" t="n">
+        <v>3.277</v>
+      </c>
+      <c r="L464" t="n">
+        <v>3.358</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L464"/>
+  <dimension ref="A1:L465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18062,7 +18062,7 @@
         <v>44802</v>
       </c>
       <c r="B464" t="n">
-        <v>1.243</v>
+        <v>1.31</v>
       </c>
       <c r="C464" t="n">
         <v>1.55</v>
@@ -18071,28 +18071,66 @@
         <v>0.76</v>
       </c>
       <c r="E464" t="n">
-        <v>2.066</v>
+        <v>2.1</v>
       </c>
       <c r="F464" t="n">
-        <v>2.359</v>
+        <v>2.39</v>
       </c>
       <c r="G464" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H464" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I464" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J464" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K464" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="L464" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B465" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C465" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D465" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E465" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F465" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G465" t="n">
         <v>2.45</v>
       </c>
-      <c r="H464" t="n">
-        <v>2.582</v>
-      </c>
-      <c r="I464" t="n">
-        <v>3.104</v>
-      </c>
-      <c r="J464" t="n">
-        <v>3.089</v>
-      </c>
-      <c r="K464" t="n">
-        <v>3.277</v>
-      </c>
-      <c r="L464" t="n">
-        <v>3.358</v>
+      <c r="H465" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I465" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J465" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="K465" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="L465" t="n">
+        <v>3.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L465"/>
+  <dimension ref="A1:L466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18133,6 +18133,44 @@
         <v>3.37</v>
       </c>
     </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B466" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C466" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D466" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E466" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F466" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G466" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H466" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I466" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="J466" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K466" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="L466" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L466"/>
+  <dimension ref="A1:L467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18171,6 +18171,44 @@
         <v>3.4</v>
       </c>
     </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B467" t="n">
+        <v>1.314</v>
+      </c>
+      <c r="C467" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D467" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E467" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F467" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G467" t="n">
+        <v>2.596</v>
+      </c>
+      <c r="H467" t="n">
+        <v>2.739</v>
+      </c>
+      <c r="I467" t="n">
+        <v>3.206</v>
+      </c>
+      <c r="J467" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="K467" t="n">
+        <v>3.368</v>
+      </c>
+      <c r="L467" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -18176,7 +18176,7 @@
         <v>44809</v>
       </c>
       <c r="B467" t="n">
-        <v>1.314</v>
+        <v>1.38</v>
       </c>
       <c r="C467" t="n">
         <v>1.58</v>
@@ -18188,22 +18188,22 @@
         <v>2.5</v>
       </c>
       <c r="F467" t="n">
-        <v>2.49</v>
+        <v>2.52</v>
       </c>
       <c r="G467" t="n">
-        <v>2.596</v>
+        <v>2.62</v>
       </c>
       <c r="H467" t="n">
-        <v>2.739</v>
+        <v>2.79</v>
       </c>
       <c r="I467" t="n">
-        <v>3.206</v>
+        <v>3.25</v>
       </c>
       <c r="J467" t="n">
-        <v>3.19</v>
+        <v>3.21</v>
       </c>
       <c r="K467" t="n">
-        <v>3.368</v>
+        <v>3.41</v>
       </c>
       <c r="L467" t="n">
         <v>3.54</v>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -18176,37 +18176,37 @@
         <v>44809</v>
       </c>
       <c r="B467" t="n">
-        <v>1.38</v>
+        <v>1.314</v>
       </c>
       <c r="C467" t="n">
-        <v>1.58</v>
+        <v>1.542</v>
       </c>
       <c r="D467" t="n">
         <v>0.76</v>
       </c>
       <c r="E467" t="n">
-        <v>2.5</v>
+        <v>2.395</v>
       </c>
       <c r="F467" t="n">
-        <v>2.52</v>
+        <v>2.49</v>
       </c>
       <c r="G467" t="n">
-        <v>2.62</v>
+        <v>2.596</v>
       </c>
       <c r="H467" t="n">
-        <v>2.79</v>
+        <v>2.739</v>
       </c>
       <c r="I467" t="n">
-        <v>3.25</v>
+        <v>3.206</v>
       </c>
       <c r="J467" t="n">
-        <v>3.21</v>
+        <v>3.19</v>
       </c>
       <c r="K467" t="n">
-        <v>3.41</v>
+        <v>3.368</v>
       </c>
       <c r="L467" t="n">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -18176,37 +18176,37 @@
         <v>44809</v>
       </c>
       <c r="B467" t="n">
-        <v>1.314</v>
+        <v>1.38</v>
       </c>
       <c r="C467" t="n">
-        <v>1.542</v>
+        <v>1.58</v>
       </c>
       <c r="D467" t="n">
         <v>0.76</v>
       </c>
       <c r="E467" t="n">
-        <v>2.395</v>
+        <v>2.5</v>
       </c>
       <c r="F467" t="n">
-        <v>2.49</v>
+        <v>2.52</v>
       </c>
       <c r="G467" t="n">
-        <v>2.596</v>
+        <v>2.62</v>
       </c>
       <c r="H467" t="n">
-        <v>2.739</v>
+        <v>2.79</v>
       </c>
       <c r="I467" t="n">
-        <v>3.206</v>
+        <v>3.25</v>
       </c>
       <c r="J467" t="n">
-        <v>3.19</v>
+        <v>3.21</v>
       </c>
       <c r="K467" t="n">
-        <v>3.368</v>
+        <v>3.41</v>
       </c>
       <c r="L467" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Thailand.xlsx
+++ b/Bonds_Thailand.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L467"/>
+  <dimension ref="A1:L468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18209,6 +18209,44 @@
         <v>3.54</v>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B468" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C468" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E468" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F468" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G468" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H468" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I468" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="J468" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K468" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L468" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
